--- a/dezsys02-working-hours-janeczek-mair.xlsx
+++ b/dezsys02-working-hours-janeczek-mair.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196"/>
   </bookViews>
   <sheets>
     <sheet name="Janeczek" sheetId="8" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="17">
   <si>
     <t>PHASE</t>
   </si>
@@ -65,10 +65,19 @@
     <t>COMMENT</t>
   </si>
   <si>
-    <t>?</t>
-  </si>
-  <si>
     <t>Working Hours</t>
+  </si>
+  <si>
+    <t>Protocol</t>
+  </si>
+  <si>
+    <t>Writing the basics of the protocol</t>
+  </si>
+  <si>
+    <t>still ongoing</t>
+  </si>
+  <si>
+    <t>done.</t>
   </si>
 </sst>
 </file>
@@ -158,7 +167,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -175,9 +184,6 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -190,15 +196,9 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -208,17 +208,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="46" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="46" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="46" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="46" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -594,18 +606,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.5546875" style="16" customWidth="1"/>
-    <col min="4" max="4" width="35.44140625" style="16" customWidth="1"/>
-    <col min="5" max="5" width="12" style="16" customWidth="1"/>
-    <col min="6" max="6" width="9" style="16" customWidth="1"/>
-    <col min="7" max="7" width="19.109375" style="15" customWidth="1"/>
+    <col min="3" max="3" width="15.5546875" style="13" customWidth="1"/>
+    <col min="4" max="4" width="35.44140625" style="13" customWidth="1"/>
+    <col min="5" max="5" width="12" style="13" customWidth="1"/>
+    <col min="6" max="6" width="9" style="13" customWidth="1"/>
+    <col min="7" max="7" width="19.109375" style="12" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
@@ -618,12 +630,12 @@
     </row>
     <row r="2" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
-      <c r="B2" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
+      <c r="B2" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
       <c r="F2" s="2"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
@@ -634,7 +646,7 @@
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
     </row>
-    <row r="4" spans="1:7" s="16" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" s="13" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2"/>
       <c r="B4" s="4" t="s">
         <v>8</v>
@@ -660,117 +672,131 @@
       <c r="B5" s="5">
         <v>41922</v>
       </c>
-      <c r="C5" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="E5" s="6">
-        <v>3</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5" s="14"/>
+      <c r="C5" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="18">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="F5" s="18">
+        <v>6.1111111111111116E-2</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="6" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="20"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="14"/>
+      <c r="B6" s="5">
+        <v>41922</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" s="18">
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="F6" s="18">
+        <v>0</v>
+      </c>
+      <c r="G6" s="11" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="7" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5"/>
-      <c r="C7" s="20"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="14"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="11"/>
     </row>
     <row r="8" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5"/>
-      <c r="C8" s="20"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="14"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="11"/>
     </row>
     <row r="9" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5"/>
-      <c r="C9" s="20"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="14"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="11"/>
     </row>
     <row r="10" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5"/>
-      <c r="C10" s="20"/>
-      <c r="D10" s="20"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="14"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="11"/>
     </row>
     <row r="11" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5"/>
-      <c r="C11" s="20"/>
-      <c r="D11" s="20"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="14"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="11"/>
     </row>
     <row r="12" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5"/>
-      <c r="C12" s="20"/>
-      <c r="D12" s="20"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="14"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="11"/>
     </row>
     <row r="13" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5"/>
-      <c r="C13" s="20"/>
-      <c r="D13" s="20"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="14"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="11"/>
     </row>
     <row r="14" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5"/>
-      <c r="C14" s="20"/>
-      <c r="D14" s="20"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="14"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="11"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
-      <c r="B15" s="18" t="s">
+      <c r="B15" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="C15" s="18"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="7">
+      <c r="C15" s="17"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="19">
         <f>SUM(E5:E14)</f>
-        <v>3</v>
-      </c>
-      <c r="F15" s="7">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="F15" s="19">
         <f>SUM(F5:F14)</f>
-        <v>0</v>
-      </c>
-      <c r="G15" s="7"/>
+        <v>6.1111111111111116E-2</v>
+      </c>
+      <c r="G15" s="6"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
@@ -810,6 +836,7 @@
     <mergeCell ref="B15:D15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -817,15 +844,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="10.109375"/>
-    <col min="3" max="3" width="15.5546875" style="16" customWidth="1"/>
-    <col min="4" max="4" width="37.6640625" style="16"/>
+    <col min="3" max="3" width="15.5546875" style="13" customWidth="1"/>
+    <col min="4" max="4" width="37.6640625" style="13"/>
     <col min="5" max="5" width="14.88671875" customWidth="1"/>
     <col min="7" max="7" width="16.109375" customWidth="1"/>
   </cols>
@@ -840,12 +867,12 @@
     </row>
     <row r="2" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
-      <c r="B2" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
+      <c r="B2" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
       <c r="F2" s="1"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
@@ -882,117 +909,119 @@
       <c r="B5" s="5">
         <v>41922</v>
       </c>
-      <c r="C5" s="20" t="s">
+      <c r="C5" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="20" t="s">
+      <c r="D5" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="6">
-        <v>3</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5" s="14"/>
+      <c r="E5" s="18">
+        <v>0.1875</v>
+      </c>
+      <c r="F5" s="18">
+        <v>6.25E-2</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5"/>
-      <c r="C6" s="20"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="14"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="11"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5"/>
-      <c r="C7" s="20"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="14"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="11"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5"/>
-      <c r="C8" s="20"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="14"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="11"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5"/>
-      <c r="C9" s="20"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="14"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="11"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5"/>
-      <c r="C10" s="20"/>
-      <c r="D10" s="20"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="14"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="11"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5"/>
-      <c r="C11" s="20"/>
-      <c r="D11" s="20"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="14"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="11"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5"/>
-      <c r="C12" s="20"/>
-      <c r="D12" s="20"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="14"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="11"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5"/>
-      <c r="C13" s="20"/>
-      <c r="D13" s="20"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="14"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="11"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5"/>
-      <c r="C14" s="20"/>
-      <c r="D14" s="20"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="14"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="11"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
-      <c r="B15" s="18" t="s">
+      <c r="B15" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="C15" s="18"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="7">
+      <c r="C15" s="17"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="19">
         <f>SUM(E5:E14)</f>
-        <v>3</v>
-      </c>
-      <c r="F15" s="7">
+        <v>0.1875</v>
+      </c>
+      <c r="F15" s="19">
         <f>SUM(F5:F14)</f>
-        <v>0</v>
-      </c>
-      <c r="G15" s="7"/>
+        <v>6.25E-2</v>
+      </c>
+      <c r="G15" s="6"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
@@ -1041,7 +1070,7 @@
   <dimension ref="A3:D8"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1051,65 +1080,65 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:4" ht="18" x14ac:dyDescent="0.3">
-      <c r="A3" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
+      <c r="A3" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
     </row>
     <row r="4" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="9" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B6" s="19" t="s">
+      <c r="B6" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="11">
+      <c r="C6" s="20">
         <f>SumEstJaneczek</f>
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="D6" s="20">
+        <f>SumActJaneczek</f>
+        <v>6.1111111111111116E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B7" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="11">
-        <f>SumActJaneczek</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B7" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="11">
+      <c r="C7" s="20">
         <f>SumEstMair</f>
-        <v>3</v>
-      </c>
-      <c r="D7" s="11">
+        <v>0.1875</v>
+      </c>
+      <c r="D7" s="20">
         <f>SumActMair</f>
-        <v>0</v>
+        <v>6.25E-2</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="13">
+      <c r="C8" s="21">
         <f>SUM(SumEstJaneczek+SumEstMair)</f>
-        <v>6</v>
-      </c>
-      <c r="D8" s="13">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="D8" s="21">
         <f>SUM(SumActJaneczek+SumActMair)</f>
-        <v>0</v>
+        <v>0.12361111111111112</v>
       </c>
     </row>
   </sheetData>

--- a/dezsys02-working-hours-janeczek-mair.xlsx
+++ b/dezsys02-working-hours-janeczek-mair.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="19">
   <si>
     <t>PHASE</t>
   </si>
@@ -78,6 +78,12 @@
   </si>
   <si>
     <t>done.</t>
+  </si>
+  <si>
+    <t>RM-Creation</t>
+  </si>
+  <si>
+    <t>Creating the RM-Model</t>
   </si>
 </sst>
 </file>
@@ -214,23 +220,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="46" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="46" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="46" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="46" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="46" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="46" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="46" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="46" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -607,7 +613,7 @@
   <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -630,12 +636,12 @@
     </row>
     <row r="2" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
       <c r="F2" s="2"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
@@ -678,10 +684,10 @@
       <c r="D5" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="18">
+      <c r="E5" s="16">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="F5" s="18">
+      <c r="F5" s="16">
         <v>6.1111111111111116E-2</v>
       </c>
       <c r="G5" s="11" t="s">
@@ -699,11 +705,11 @@
       <c r="D6" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="18">
+      <c r="E6" s="16">
         <v>0.20833333333333334</v>
       </c>
-      <c r="F6" s="18">
-        <v>0</v>
+      <c r="F6" s="16">
+        <v>4.1666666666666664E-2</v>
       </c>
       <c r="G6" s="11" t="s">
         <v>15</v>
@@ -711,20 +717,32 @@
     </row>
     <row r="7" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="15"/>
-      <c r="D7" s="15"/>
-      <c r="E7" s="18"/>
-      <c r="F7" s="18"/>
-      <c r="G7" s="11"/>
+      <c r="B7" s="5">
+        <v>41922</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="16">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="F7" s="16">
+        <v>2.9178240740740741E-2</v>
+      </c>
+      <c r="G7" s="11" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="8" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5"/>
       <c r="C8" s="15"/>
       <c r="D8" s="15"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="18"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
       <c r="G8" s="11"/>
     </row>
     <row r="9" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -732,8 +750,8 @@
       <c r="B9" s="5"/>
       <c r="C9" s="15"/>
       <c r="D9" s="15"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="18"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
       <c r="G9" s="11"/>
     </row>
     <row r="10" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -741,8 +759,8 @@
       <c r="B10" s="5"/>
       <c r="C10" s="15"/>
       <c r="D10" s="15"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="18"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="16"/>
       <c r="G10" s="11"/>
     </row>
     <row r="11" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -750,8 +768,8 @@
       <c r="B11" s="5"/>
       <c r="C11" s="15"/>
       <c r="D11" s="15"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="18"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
       <c r="G11" s="11"/>
     </row>
     <row r="12" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -759,8 +777,8 @@
       <c r="B12" s="5"/>
       <c r="C12" s="15"/>
       <c r="D12" s="15"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="18"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="16"/>
       <c r="G12" s="11"/>
     </row>
     <row r="13" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -768,8 +786,8 @@
       <c r="B13" s="5"/>
       <c r="C13" s="15"/>
       <c r="D13" s="15"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="18"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="16"/>
       <c r="G13" s="11"/>
     </row>
     <row r="14" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -777,24 +795,24 @@
       <c r="B14" s="5"/>
       <c r="C14" s="15"/>
       <c r="D14" s="15"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="18"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="16"/>
       <c r="G14" s="11"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
-      <c r="B15" s="17" t="s">
+      <c r="B15" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="C15" s="17"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="19">
+      <c r="C15" s="21"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="17">
         <f>SUM(E5:E14)</f>
-        <v>0.29166666666666669</v>
-      </c>
-      <c r="F15" s="19">
+        <v>0.33333333333333337</v>
+      </c>
+      <c r="F15" s="17">
         <f>SUM(F5:F14)</f>
-        <v>6.1111111111111116E-2</v>
+        <v>0.13195601851851851</v>
       </c>
       <c r="G15" s="6"/>
     </row>
@@ -867,12 +885,12 @@
     </row>
     <row r="2" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
       <c r="F2" s="1"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
@@ -915,10 +933,10 @@
       <c r="D5" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="18">
+      <c r="E5" s="16">
         <v>0.1875</v>
       </c>
-      <c r="F5" s="18">
+      <c r="F5" s="16">
         <v>6.25E-2</v>
       </c>
       <c r="G5" s="11" t="s">
@@ -930,8 +948,8 @@
       <c r="B6" s="5"/>
       <c r="C6" s="15"/>
       <c r="D6" s="15"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="18"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
       <c r="G6" s="11"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
@@ -939,8 +957,8 @@
       <c r="B7" s="5"/>
       <c r="C7" s="15"/>
       <c r="D7" s="15"/>
-      <c r="E7" s="18"/>
-      <c r="F7" s="18"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
       <c r="G7" s="11"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
@@ -948,8 +966,8 @@
       <c r="B8" s="5"/>
       <c r="C8" s="15"/>
       <c r="D8" s="15"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="18"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
       <c r="G8" s="11"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
@@ -957,8 +975,8 @@
       <c r="B9" s="5"/>
       <c r="C9" s="15"/>
       <c r="D9" s="15"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="18"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
       <c r="G9" s="11"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
@@ -966,8 +984,8 @@
       <c r="B10" s="5"/>
       <c r="C10" s="15"/>
       <c r="D10" s="15"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="18"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="16"/>
       <c r="G10" s="11"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
@@ -975,8 +993,8 @@
       <c r="B11" s="5"/>
       <c r="C11" s="15"/>
       <c r="D11" s="15"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="18"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
       <c r="G11" s="11"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
@@ -984,8 +1002,8 @@
       <c r="B12" s="5"/>
       <c r="C12" s="15"/>
       <c r="D12" s="15"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="18"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="16"/>
       <c r="G12" s="11"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
@@ -993,8 +1011,8 @@
       <c r="B13" s="5"/>
       <c r="C13" s="15"/>
       <c r="D13" s="15"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="18"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="16"/>
       <c r="G13" s="11"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
@@ -1002,22 +1020,22 @@
       <c r="B14" s="5"/>
       <c r="C14" s="15"/>
       <c r="D14" s="15"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="18"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="16"/>
       <c r="G14" s="11"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
-      <c r="B15" s="17" t="s">
+      <c r="B15" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="C15" s="17"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="19">
+      <c r="C15" s="21"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="17">
         <f>SUM(E5:E14)</f>
         <v>0.1875</v>
       </c>
-      <c r="F15" s="19">
+      <c r="F15" s="17">
         <f>SUM(F5:F14)</f>
         <v>6.25E-2</v>
       </c>
@@ -1080,12 +1098,12 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:4" ht="18" x14ac:dyDescent="0.3">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
+      <c r="B3" s="20"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
     </row>
     <row r="4" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="B4" s="7"/>
@@ -1106,24 +1124,24 @@
       <c r="B6" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="20">
+      <c r="C6" s="18">
         <f>SumEstJaneczek</f>
-        <v>0.29166666666666669</v>
-      </c>
-      <c r="D6" s="20">
+        <v>0.33333333333333337</v>
+      </c>
+      <c r="D6" s="18">
         <f>SumActJaneczek</f>
-        <v>6.1111111111111116E-2</v>
+        <v>0.13195601851851851</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B7" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="20">
+      <c r="C7" s="18">
         <f>SumEstMair</f>
         <v>0.1875</v>
       </c>
-      <c r="D7" s="20">
+      <c r="D7" s="18">
         <f>SumActMair</f>
         <v>6.25E-2</v>
       </c>
@@ -1132,13 +1150,13 @@
       <c r="B8" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="21">
+      <c r="C8" s="19">
         <f>SUM(SumEstJaneczek+SumEstMair)</f>
-        <v>0.47916666666666669</v>
-      </c>
-      <c r="D8" s="21">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="D8" s="19">
         <f>SUM(SumActJaneczek+SumActMair)</f>
-        <v>0.12361111111111112</v>
+        <v>0.19445601851851851</v>
       </c>
     </row>
   </sheetData>

--- a/dezsys02-working-hours-janeczek-mair.xlsx
+++ b/dezsys02-working-hours-janeczek-mair.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Chris\Desktop\git\dist-db\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Janeczek" sheetId="8" r:id="rId1"/>
@@ -22,12 +17,12 @@
     <definedName name="SumEstJaneczek">Janeczek!$E$15</definedName>
     <definedName name="SumEstMair">Mair!$E$15</definedName>
   </definedNames>
-  <calcPr calcId="152511" iterateDelta="1E-4"/>
+  <calcPr calcId="125725" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="21">
   <si>
     <t>PHASE</t>
   </si>
@@ -84,16 +79,22 @@
   </si>
   <si>
     <t>Creating the RM-Model</t>
+  </si>
+  <si>
+    <t>ER-Creation</t>
+  </si>
+  <si>
+    <t>Creating the ER-Model</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="mm/dd/yyyy"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -173,7 +174,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -238,9 +239,12 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -324,9 +328,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa-Design">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Larissa">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -364,9 +368,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Larissa">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -398,10 +402,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -433,10 +436,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Larissa">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -609,24 +611,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7:G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.5546875" style="13" customWidth="1"/>
-    <col min="4" max="4" width="35.44140625" style="13" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" style="13" customWidth="1"/>
+    <col min="4" max="4" width="35.42578125" style="13" customWidth="1"/>
     <col min="5" max="5" width="12" style="13" customWidth="1"/>
     <col min="6" max="6" width="9" style="13" customWidth="1"/>
-    <col min="7" max="7" width="19.109375" style="12" customWidth="1"/>
+    <col min="7" max="7" width="19.140625" style="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -634,7 +636,7 @@
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
     </row>
-    <row r="2" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="18.75" customHeight="1">
       <c r="A2" s="1"/>
       <c r="B2" s="20" t="s">
         <v>12</v>
@@ -644,7 +646,7 @@
       <c r="E2" s="20"/>
       <c r="F2" s="2"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7">
       <c r="A3" s="1"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -652,7 +654,7 @@
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
     </row>
-    <row r="4" spans="1:7" s="13" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" s="13" customFormat="1" ht="15.6" customHeight="1">
       <c r="A4" s="2"/>
       <c r="B4" s="4" t="s">
         <v>8</v>
@@ -673,7 +675,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="15.6" customHeight="1">
       <c r="A5" s="1"/>
       <c r="B5" s="5">
         <v>41922</v>
@@ -694,7 +696,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" ht="15.6" customHeight="1">
       <c r="A6" s="1"/>
       <c r="B6" s="5">
         <v>41922</v>
@@ -715,7 +717,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" ht="15.6" customHeight="1">
       <c r="A7" s="1"/>
       <c r="B7" s="5">
         <v>41922</v>
@@ -736,7 +738,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" ht="15.6" customHeight="1">
       <c r="A8" s="1"/>
       <c r="B8" s="5"/>
       <c r="C8" s="15"/>
@@ -745,7 +747,7 @@
       <c r="F8" s="16"/>
       <c r="G8" s="11"/>
     </row>
-    <row r="9" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" ht="15.6" customHeight="1">
       <c r="A9" s="1"/>
       <c r="B9" s="5"/>
       <c r="C9" s="15"/>
@@ -754,7 +756,7 @@
       <c r="F9" s="16"/>
       <c r="G9" s="11"/>
     </row>
-    <row r="10" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" ht="15.6" customHeight="1">
       <c r="A10" s="1"/>
       <c r="B10" s="5"/>
       <c r="C10" s="15"/>
@@ -763,7 +765,7 @@
       <c r="F10" s="16"/>
       <c r="G10" s="11"/>
     </row>
-    <row r="11" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" ht="15.6" customHeight="1">
       <c r="A11" s="1"/>
       <c r="B11" s="5"/>
       <c r="C11" s="15"/>
@@ -772,7 +774,7 @@
       <c r="F11" s="16"/>
       <c r="G11" s="11"/>
     </row>
-    <row r="12" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" ht="15.6" customHeight="1">
       <c r="A12" s="1"/>
       <c r="B12" s="5"/>
       <c r="C12" s="15"/>
@@ -781,7 +783,7 @@
       <c r="F12" s="16"/>
       <c r="G12" s="11"/>
     </row>
-    <row r="13" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" ht="15.6" customHeight="1">
       <c r="A13" s="1"/>
       <c r="B13" s="5"/>
       <c r="C13" s="15"/>
@@ -790,7 +792,7 @@
       <c r="F13" s="16"/>
       <c r="G13" s="11"/>
     </row>
-    <row r="14" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" ht="15.6" customHeight="1">
       <c r="A14" s="1"/>
       <c r="B14" s="5"/>
       <c r="C14" s="15"/>
@@ -799,7 +801,7 @@
       <c r="F14" s="16"/>
       <c r="G14" s="11"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7">
       <c r="A15" s="1"/>
       <c r="B15" s="21" t="s">
         <v>9</v>
@@ -816,7 +818,7 @@
       </c>
       <c r="G15" s="6"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="2"/>
@@ -824,7 +826,7 @@
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="2"/>
@@ -832,7 +834,7 @@
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="2"/>
@@ -840,7 +842,7 @@
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="2"/>
@@ -859,23 +861,23 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="10.109375"/>
-    <col min="3" max="3" width="15.5546875" style="13" customWidth="1"/>
-    <col min="4" max="4" width="37.6640625" style="13"/>
-    <col min="5" max="5" width="14.88671875" customWidth="1"/>
-    <col min="7" max="7" width="16.109375" customWidth="1"/>
+    <col min="2" max="2" width="10.140625"/>
+    <col min="3" max="3" width="15.5703125" style="13" customWidth="1"/>
+    <col min="4" max="4" width="37.7109375" style="13"/>
+    <col min="5" max="5" width="14.85546875" customWidth="1"/>
+    <col min="7" max="7" width="16.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -883,7 +885,7 @@
       <c r="E1" s="3"/>
       <c r="F1" s="1"/>
     </row>
-    <row r="2" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="18.75" customHeight="1">
       <c r="A2" s="1"/>
       <c r="B2" s="20" t="s">
         <v>12</v>
@@ -893,7 +895,7 @@
       <c r="E2" s="20"/>
       <c r="F2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7">
       <c r="A3" s="1"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -901,7 +903,7 @@
       <c r="E3" s="3"/>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="15.6" customHeight="1">
       <c r="A4" s="1"/>
       <c r="B4" s="4" t="s">
         <v>8</v>
@@ -922,7 +924,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7">
       <c r="A5" s="1"/>
       <c r="B5" s="5">
         <v>41922</v>
@@ -943,16 +945,28 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7">
       <c r="A6" s="1"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="11"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B6" s="5">
+        <v>41922</v>
+      </c>
+      <c r="C6" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="16">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="F6" s="16">
+        <v>6.9456018518518514E-2</v>
+      </c>
+      <c r="G6" s="11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1"/>
       <c r="B7" s="5"/>
       <c r="C7" s="15"/>
@@ -961,7 +975,7 @@
       <c r="F7" s="16"/>
       <c r="G7" s="11"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7">
       <c r="A8" s="1"/>
       <c r="B8" s="5"/>
       <c r="C8" s="15"/>
@@ -970,7 +984,7 @@
       <c r="F8" s="16"/>
       <c r="G8" s="11"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7">
       <c r="A9" s="1"/>
       <c r="B9" s="5"/>
       <c r="C9" s="15"/>
@@ -979,7 +993,7 @@
       <c r="F9" s="16"/>
       <c r="G9" s="11"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7">
       <c r="A10" s="1"/>
       <c r="B10" s="5"/>
       <c r="C10" s="15"/>
@@ -988,7 +1002,7 @@
       <c r="F10" s="16"/>
       <c r="G10" s="11"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7">
       <c r="A11" s="1"/>
       <c r="B11" s="5"/>
       <c r="C11" s="15"/>
@@ -997,7 +1011,7 @@
       <c r="F11" s="16"/>
       <c r="G11" s="11"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7">
       <c r="A12" s="1"/>
       <c r="B12" s="5"/>
       <c r="C12" s="15"/>
@@ -1006,7 +1020,7 @@
       <c r="F12" s="16"/>
       <c r="G12" s="11"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7">
       <c r="A13" s="1"/>
       <c r="B13" s="5"/>
       <c r="C13" s="15"/>
@@ -1015,7 +1029,7 @@
       <c r="F13" s="16"/>
       <c r="G13" s="11"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7">
       <c r="A14" s="1"/>
       <c r="B14" s="5"/>
       <c r="C14" s="15"/>
@@ -1024,7 +1038,7 @@
       <c r="F14" s="16"/>
       <c r="G14" s="11"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7">
       <c r="A15" s="1"/>
       <c r="B15" s="21" t="s">
         <v>9</v>
@@ -1033,15 +1047,15 @@
       <c r="D15" s="21"/>
       <c r="E15" s="17">
         <f>SUM(E5:E14)</f>
-        <v>0.1875</v>
+        <v>0.22916666666666666</v>
       </c>
       <c r="F15" s="17">
         <f>SUM(F5:F14)</f>
-        <v>6.25E-2</v>
+        <v>0.13195601851851851</v>
       </c>
       <c r="G15" s="6"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="2"/>
@@ -1049,7 +1063,7 @@
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="2"/>
@@ -1057,7 +1071,7 @@
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="2"/>
@@ -1065,7 +1079,7 @@
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="2"/>
@@ -1084,20 +1098,20 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A3:D8"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="10.5546875"/>
-    <col min="3" max="3" width="14.21875" customWidth="1"/>
+    <col min="2" max="2" width="10.5703125"/>
+    <col min="3" max="3" width="14.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:4" ht="18" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" ht="18.75">
       <c r="A3" s="20" t="s">
         <v>12</v>
       </c>
@@ -1105,11 +1119,11 @@
       <c r="C3" s="20"/>
       <c r="D3" s="20"/>
     </row>
-    <row r="4" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" ht="18.75">
       <c r="B4" s="7"/>
       <c r="C4" s="7"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4">
       <c r="B5" s="8" t="s">
         <v>1</v>
       </c>
@@ -1120,7 +1134,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4">
       <c r="B6" s="14" t="s">
         <v>2</v>
       </c>
@@ -1133,30 +1147,30 @@
         <v>0.13195601851851851</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4">
       <c r="B7" s="14" t="s">
         <v>3</v>
       </c>
       <c r="C7" s="18">
         <f>SumEstMair</f>
-        <v>0.1875</v>
+        <v>0.22916666666666666</v>
       </c>
       <c r="D7" s="18">
         <f>SumActMair</f>
-        <v>6.25E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.13195601851851851</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="B8" s="10" t="s">
         <v>9</v>
       </c>
       <c r="C8" s="19">
         <f>SUM(SumEstJaneczek+SumEstMair)</f>
-        <v>0.52083333333333337</v>
+        <v>0.5625</v>
       </c>
       <c r="D8" s="19">
         <f>SUM(SumActJaneczek+SumActMair)</f>
-        <v>0.19445601851851851</v>
+        <v>0.26391203703703703</v>
       </c>
     </row>
   </sheetData>
